--- a/links.xlsx
+++ b/links.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="151">
   <si>
     <t>.l14 {</t>
   </si>
@@ -413,6 +413,75 @@
   </si>
   <si>
     <t>https://www.rockstarsportsaffiliates.com/idevaffiliate.php?id=105_4</t>
+  </si>
+  <si>
+    <t>",id:</t>
+  </si>
+  <si>
+    <t>,logo:</t>
+  </si>
+  <si>
+    <t>39,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>32,</t>
+  </si>
+  <si>
+    <t>42,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>38,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>:{name:"</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1244,7 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1186,222 +1255,507 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2">
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3">
+      <c r="D6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>121</v>
+      </c>
+      <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16">
+        <v>383</v>
+      </c>
+      <c r="H16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4">
+      <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17">
+        <v>390</v>
+      </c>
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18">
+        <v>416</v>
+      </c>
+      <c r="H18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19">
+        <v>417</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14">
+      <c r="D20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20">
+      <c r="G20">
         <v>446</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -1409,7 +1763,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1417,7 +1771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>11</v>
       </c>
@@ -1425,7 +1779,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -1433,7 +1787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>14</v>
       </c>
@@ -1441,7 +1795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>15</v>
       </c>
@@ -1449,7 +1803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>17</v>
       </c>
@@ -1457,7 +1811,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>18</v>
       </c>
@@ -1465,7 +1819,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>19</v>
       </c>
@@ -1473,7 +1827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>20</v>
       </c>
@@ -1481,7 +1835,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -1489,7 +1843,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>24</v>
       </c>
@@ -1600,7 +1954,7 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
